--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\644017\PROJECTS\DIALOGFLOW\DialogFlowBackend\Agent\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
   </bookViews>
@@ -19,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>['test', 'testing']</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>value</t>
   </si>
@@ -39,9 +31,6 @@
     <t>testIntent</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>AnnotationValue</t>
   </si>
   <si>
@@ -54,19 +43,85 @@
     <t>testIntent2</t>
   </si>
   <si>
-    <t>['testeando', 'prueba']</t>
-  </si>
-  <si>
     <t>s9</t>
   </si>
   <si>
     <t>smartphoneName</t>
+  </si>
+  <si>
+    <t>Another Intent</t>
+  </si>
+  <si>
+    <t>productCategory</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>movil</t>
+  </si>
+  <si>
+    <t>test
+testing</t>
+  </si>
+  <si>
+    <t>testeando
+prueba</t>
+  </si>
+  <si>
+    <t>quiero hacer una prueba
+probar another intent
+lanzar intent de prueba</t>
+  </si>
+  <si>
+    <t>Cuáles son los smartphones más potentes? 
+qué móviles tienen más RAM?</t>
+  </si>
+  <si>
+    <t>smartphone.selected.ecommerces</t>
+  </si>
+  <si>
+    <t>sp.question.bestBattery</t>
+  </si>
+  <si>
+    <t>sp.question.mostPowerful</t>
+  </si>
+  <si>
+    <t>Ver tiendas
+Dónde lo puedo comprar?
+Tiendas</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Cual tiene más batería
+Cuáes son los que teienen mejor batería
+Muéstrame los 3 con más batería
+Dime los 5 con mejor batería
+Muéstrame el de mejor batería</t>
+  </si>
+  <si>
+    <t>3
+cual
+cuál
+el
+5</t>
+  </si>
+  <si>
+    <t>prueba
+probando
+probanding</t>
+  </si>
+  <si>
+    <t>test
+value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,56 +599,80 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -686,7 +765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -863,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,127 +953,193 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>intent</t>
   </si>
@@ -28,30 +25,12 @@
     <t>Events</t>
   </si>
   <si>
-    <t>testIntent</t>
-  </si>
-  <si>
     <t>AnnotationValue</t>
   </si>
   <si>
     <t>AnnotationParam</t>
   </si>
   <si>
-    <t>testParameter</t>
-  </si>
-  <si>
-    <t>testIntent2</t>
-  </si>
-  <si>
-    <t>s9</t>
-  </si>
-  <si>
-    <t>smartphoneName</t>
-  </si>
-  <si>
-    <t>Another Intent</t>
-  </si>
-  <si>
     <t>productCategory</t>
   </si>
   <si>
@@ -59,19 +38,6 @@
   </si>
   <si>
     <t>movil</t>
-  </si>
-  <si>
-    <t>test
-testing</t>
-  </si>
-  <si>
-    <t>testeando
-prueba</t>
-  </si>
-  <si>
-    <t>quiero hacer una prueba
-probar another intent
-lanzar intent de prueba</t>
   </si>
   <si>
     <t>Cuáles son los smartphones más potentes? 
@@ -109,13 +75,30 @@
 5</t>
   </si>
   <si>
-    <t>prueba
-probando
-probanding</t>
-  </si>
-  <si>
-    <t>test
-value</t>
+    <t>buy&gt;product.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+comprar
+quiero hacer una compra
+estoy buscando
+quiero comprar</t>
+  </si>
+  <si>
+    <t>product.category&gt;sp.range</t>
+  </si>
+  <si>
+    <t>quiero comprar un smartphone
+estoy buscando un móvil
+no sé que móvil comprarme
+me gustaría comprar un smartphone
+ayudame a elegir un movil</t>
+  </si>
+  <si>
+    <t>smartphone
+móvil
+moviles
+movil</t>
   </si>
 </sst>
 </file>
@@ -599,24 +582,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,6 +595,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -942,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -953,193 +935,185 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="79.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>intent</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>AnnotationParam</t>
+  </si>
+  <si>
+    <t>smartphoneName</t>
   </si>
   <si>
     <t>productCategory</t>
@@ -78,27 +81,110 @@
     <t>buy&gt;product.category</t>
   </si>
   <si>
+    <t>product.category&gt;sp.range</t>
+  </si>
+  <si>
+    <t>smartphone
+móvil
+moviles
+movil</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 comprar
 quiero hacer una compra
 estoy buscando
-quiero comprar</t>
-  </si>
-  <si>
-    <t>product.category&gt;sp.range</t>
+quiero comprar
+   Quiero hacer una compra
+  Me gustaría comprar
+  Necesito información
+  Busco información sobre productos</t>
   </si>
   <si>
     <t>quiero comprar un smartphone
 estoy buscando un móvil
 no sé que móvil comprarme
 me gustaría comprar un smartphone
-ayudame a elegir un movil</t>
-  </si>
-  <si>
-    <t>smartphone
-móvil
-moviles
-movil</t>
+ayudame a elegir un movil
+  un smartphone
+  smartphones
+  un móvil
+  quiero comprar un smartphone
+  quiero un móvil</t>
+  </si>
+  <si>
+    <t>smartphoneRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gama baja
+  gama media
+  gama alta
+  gama premium
+quiero uno de gama baja
+quiero un móvi de media gama
+uno de rango alto
+un smartphone premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gama baja
+  gama media
+  gama alta
+  gama premium
+baja
+media
+alta
+premium
+</t>
+  </si>
+  <si>
+    <t>sp.range&gt;screen</t>
+  </si>
+  <si>
+    <t>Muéstrame el Samsung S9
+  Quiero saber más sobre el lg g6
+  Hablame sobre el sony xperia zx1 compact
+Quiero el Google Pixel 2</t>
+  </si>
+  <si>
+    <t>smartphone.selected</t>
+  </si>
+  <si>
+    <t>smartphone.selected.ecommerce</t>
+  </si>
+  <si>
+    <t>smartphoneBrand</t>
+  </si>
+  <si>
+    <t>Samsung
+LG
+lg
+sony
+Google
+Apple
+huawei</t>
+  </si>
+  <si>
+    <t>S9
+S8
+zx1 compact
+Pixel 2
+G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pantalla pequeña
+  pantalla mediana
+  pantalla grande</t>
+  </si>
+  <si>
+    <t>smartphoneScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pantalla pequeña
+  pantalla mediana
+  pantalla grande
+pequeña
+mediana
+grande</t>
   </si>
 </sst>
 </file>
@@ -582,13 +668,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,8 +688,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,172 +1037,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
-  <si>
-    <t>intent</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>UserSays</t>
   </si>
@@ -45,9 +42,6 @@
   <si>
     <t>Cuáles son los smartphones más potentes? 
 qué móviles tienen más RAM?</t>
-  </si>
-  <si>
-    <t>smartphone.selected.ecommerces</t>
   </si>
   <si>
     <t>sp.question.bestBattery</t>
@@ -88,17 +82,6 @@
 móvil
 moviles
 movil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-comprar
-quiero hacer una compra
-estoy buscando
-quiero comprar
-   Quiero hacer una compra
-  Me gustaría comprar
-  Necesito información
-  Busco información sobre productos</t>
   </si>
   <si>
     <t>quiero comprar un smartphone
@@ -146,12 +129,6 @@
 Quiero el Google Pixel 2</t>
   </si>
   <si>
-    <t>smartphone.selected</t>
-  </si>
-  <si>
-    <t>smartphone.selected.ecommerce</t>
-  </si>
-  <si>
     <t>smartphoneBrand</t>
   </si>
   <si>
@@ -185,6 +162,69 @@
 pequeña
 mediana
 grande</t>
+  </si>
+  <si>
+    <t>AgentSays</t>
+  </si>
+  <si>
+    <t>¿Qué estás buscando?
+¿Qué te gustaría comprar?
+¿Qué tipo de producto te interesa?
+Dime una categoría de producto para empezar</t>
+  </si>
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
+    <t>¿Qué categoría de móvil estás buscando?
+¿Qué rango de SmartPhones te interesa?
+Elije una de las siguientes gamas para poder empezar
+Lo primero es elegir la gama de SmartPhones que buscamos
+Ten encuenta que de esta decisión depende bastante el precio
+por lo que te recomiendo que elijas de acuerdo a tus necesidades reales
+No queremos gastar dinero en algo que no necesitamos!</t>
+  </si>
+  <si>
+    <t>sp.screen&gt;RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+comprar
+quiero hacer una compra
+estoy buscando
+quiero comprar
+Quiero hacer una compra
+Me gustaría comprar
+Necesito información
+Busco información sobre productos</t>
+  </si>
+  <si>
+    <t>sp.search.generic</t>
+  </si>
+  <si>
+    <t>busco un smartphone de gama alta con 6gb de ram</t>
+  </si>
+  <si>
+    <t>Estos son los smartphones que coinciden con tu petición de búsqueda</t>
+  </si>
+  <si>
+    <t>sp.selected.ecommerce</t>
+  </si>
+  <si>
+    <t>sp.selected</t>
+  </si>
+  <si>
+    <t>sp.selected.differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que diferencias hay con el samsung  s8
+dime las diferencias entre el google pixel 2
+</t>
+  </si>
+  <si>
+    <t>Estas son las principales diferencias
+Las características en als que se diferencian son las siguientes
+Se distinguen en lo siguiente</t>
   </si>
 </sst>
 </file>
@@ -668,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,22 +723,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1013,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1021,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,214 +1080,251 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>UserSays</t>
   </si>
@@ -226,12 +226,36 @@
 Las características en als que se diferencian son las siguientes
 Se distinguen en lo siguiente</t>
   </si>
+  <si>
+    <t>cuál es el mejor móvil calidad precio
+cuales son los mejores móviles calidad precio?
+qué móvil me recomiendas por caldiad-precio?</t>
+  </si>
+  <si>
+    <t>sp.question.qualityPrice</t>
+  </si>
+  <si>
+    <t>Buscando en Internet, muchas de las webs especializadas coinciden en que el Asus Zenfone 5  ofrece las mejores prestaciones al menor precio
+En 2018 el Asus Zenfone 5 aparece nombrado más veces como mejor móvil en calidad-precio</t>
+  </si>
+  <si>
+    <t>Según los usuarios los móviles con mejor calidad precio son los de la marca Xiaomi. ¿Quieres que los veamos?</t>
+  </si>
+  <si>
+    <t>cuál es el mejor móvil calidad precio para los usuarios
+según los uduarioscuales son los mejores móviles calidad precio?
+qué móvil me recomiendan los uduarios por caldiad-precio?
+Calidad-precio según los usuarios</t>
+  </si>
+  <si>
+    <t>sp.question.qualityPriceUsers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +389,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE6DB74"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -708,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,6 +762,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -741,10 +777,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1059,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1209,10 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1188,8 +1224,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1210,10 +1246,10 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1225,8 +1261,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1243,32 +1279,32 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,10 +1321,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1297,20 +1333,45 @@
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>UserSays</t>
   </si>
@@ -123,29 +123,7 @@
     <t>sp.range&gt;screen</t>
   </si>
   <si>
-    <t>Muéstrame el Samsung S9
-  Quiero saber más sobre el lg g6
-  Hablame sobre el sony xperia zx1 compact
-Quiero el Google Pixel 2</t>
-  </si>
-  <si>
     <t>smartphoneBrand</t>
-  </si>
-  <si>
-    <t>Samsung
-LG
-lg
-sony
-Google
-Apple
-huawei</t>
-  </si>
-  <si>
-    <t>S9
-S8
-zx1 compact
-Pixel 2
-G6</t>
   </si>
   <si>
     <t xml:space="preserve">  pantalla pequeña
@@ -217,11 +195,6 @@
     <t>sp.selected.differences</t>
   </si>
   <si>
-    <t xml:space="preserve">que diferencias hay con el samsung  s8
-dime las diferencias entre el google pixel 2
-</t>
-  </si>
-  <si>
     <t>Estas son las principales diferencias
 Las características en als que se diferencian son las siguientes
 Se distinguen en lo siguiente</t>
@@ -249,6 +222,49 @@
   </si>
   <si>
     <t>sp.question.qualityPriceUsers</t>
+  </si>
+  <si>
+    <t>sp.selected.rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoraciones
+muestrame las valoraciones del samsung s9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que diferencias hay con el samsung  s8
+dime las diferencias entre el google pixel 2
+comparar con el one plus 6
+</t>
+  </si>
+  <si>
+    <t>S9
+S8
+zx1 compact
+Pixel 2
+G6
+6</t>
+  </si>
+  <si>
+    <t>Samsung
+LG
+lg
+sony
+Google
+Apple
+huawei
+one plus</t>
+  </si>
+  <si>
+    <t>Muéstrame el Samsung S9
+  Quiero saber más sobre el lg g6
+  Hablame sobre el sony xperia zx1 compact
+Quiero el Google Pixel 2
+one plus 6</t>
+  </si>
+  <si>
+    <t>Estas son las valoraciones medias que me han ofrecido los usuarios
+Así han valorado el smartphone los usuarios</t>
   </si>
 </sst>
 </file>
@@ -762,6 +778,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,12 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1095,7 +1111,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1103,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1136,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,13 +1160,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1168,7 +1184,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1188,16 +1204,16 @@
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1209,34 +1225,34 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1246,10 +1262,10 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1261,8 +1277,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1279,113 +1295,136 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F17:F18"/>
+  <mergeCells count="14">
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -195,11 +195,6 @@
     <t>sp.selected.differences</t>
   </si>
   <si>
-    <t>Estas son las principales diferencias
-Las características en als que se diferencian son las siguientes
-Se distinguen en lo siguiente</t>
-  </si>
-  <si>
     <t>cuál es el mejor móvil calidad precio
 cuales son los mejores móviles calidad precio?
 qué móvil me recomiendas por caldiad-precio?</t>
@@ -265,6 +260,11 @@
   <si>
     <t>Estas son las valoraciones medias que me han ofrecido los usuarios
 Así han valorado el smartphone los usuarios</t>
+  </si>
+  <si>
+    <t>Estas son las principales diferencias
+Las características en las que se diferencian son las siguientes
+Se distinguen en lo siguiente</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,13 +1229,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1341,16 +1341,16 @@
         <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1360,21 +1360,21 @@
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="F19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,24 +1386,24 @@
     </row>
     <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>UserSays</t>
   </si>
@@ -82,18 +82,6 @@
 móvil
 moviles
 movil</t>
-  </si>
-  <si>
-    <t>quiero comprar un smartphone
-estoy buscando un móvil
-no sé que móvil comprarme
-me gustaría comprar un smartphone
-ayudame a elegir un movil
-  un smartphone
-  smartphones
-  un móvil
-  quiero comprar un smartphone
-  quiero un móvil</t>
   </si>
   <si>
     <t>smartphoneRange</t>
@@ -203,13 +191,6 @@
     <t>sp.question.qualityPrice</t>
   </si>
   <si>
-    <t>Buscando en Internet, muchas de las webs especializadas coinciden en que el Asus Zenfone 5  ofrece las mejores prestaciones al menor precio
-En 2018 el Asus Zenfone 5 aparece nombrado más veces como mejor móvil en calidad-precio</t>
-  </si>
-  <si>
-    <t>Según los usuarios los móviles con mejor calidad precio son los de la marca Xiaomi. ¿Quieres que los veamos?</t>
-  </si>
-  <si>
     <t>cuál es el mejor móvil calidad precio para los usuarios
 según los uduarioscuales son los mejores móviles calidad precio?
 qué móvil me recomiendan los uduarios por caldiad-precio?
@@ -266,12 +247,119 @@
 Las características en las que se diferencian son las siguientes
 Se distinguen en lo siguiente</t>
   </si>
+  <si>
+    <t>sp.question.withQuickCharge</t>
+  </si>
+  <si>
+    <t>cuáles son los móviles con carga rápida
+muestrame móviles con carga rápida
+dime los 3 mejores móviles con carga rápida</t>
+  </si>
+  <si>
+    <t>3
+5</t>
+  </si>
+  <si>
+    <t>sp.selected.hasQuickCharge</t>
+  </si>
+  <si>
+    <t>Sí
+vale
+de acuerdo</t>
+  </si>
+  <si>
+    <t>Según los usuarios los móviles con mejor calidad precio son los de la marca Xiaomi</t>
+  </si>
+  <si>
+    <t>Listo! Estos son
+Aquí los tienes
+ Los smartphones más potentes son los que tienen más cantidad de memoria RAM, y son los siguientes</t>
+  </si>
+  <si>
+    <t>sp.question.cheapest</t>
+  </si>
+  <si>
+    <t>Estos son los smartphones más baratos
+Aquí tienes los móviles con el precio más bajo</t>
+  </si>
+  <si>
+    <t>Cuáes son los móviles más baratos
+Muéstrame los 4 con el precio más bajo
+Dime los 8 más baratos
+Muéstrame el más barato
+Cuál es el telefóno más barato?</t>
+  </si>
+  <si>
+    <t>4
+cual
+cuál
+el
+8</t>
+  </si>
+  <si>
+    <t>Listo! Estos son los móviles con batería de larga duración
+Aquí los tienes
+Estos son los que tienen batería de más capacidad</t>
+  </si>
+  <si>
+    <t>sp.firstQuestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ayudame a elegir un movil
+  ayudame
+mejor ayúdame
+guíame
+ayúdame a elegir características</t>
+  </si>
+  <si>
+    <t>sp.selected.searchQuickCharge.yes</t>
+  </si>
+  <si>
+    <t>Puedes preguntarme lo que quieras, o te puedo guiar para elegir uno 🤔
+¿Quieres preguntarme algo? ¿O quieres que te ayude a elegir características?</t>
+  </si>
+  <si>
+    <t>Vamos a empezar por las dimensiones del SmartPhone, que dependen principalmente del tamaño de pantalla.
+        Las dimensiones del SmartPhone determinan su tamaño. ¿Qué tamaño de pantalla estás buscando?</t>
+  </si>
+  <si>
+    <t>quiero comprar un smartphone
+estoy buscando un móvil
+no sé que móvil comprarme
+me gustaría comprar un smartphone
+ quiero comprar un smartphone
+ quiero un móvil
+quiero comprar un móvil</t>
+  </si>
+  <si>
+    <t>Buscando en Internet, muchas de las webs especializadas coinciden en que el Huawei P20 Lite ofrece las mejores prestaciones al menor precio
+En 2018 el Huawei P20 Lite aparece nombrado más veces como mejor móvil en calidad-precio</t>
+  </si>
+  <si>
+    <t>tiene carga rápida?
+Cuenta con carga rápida?
+El xiaomi mi 8 tiene carga rápida?</t>
+  </si>
+  <si>
+    <t>xiaomi</t>
+  </si>
+  <si>
+    <t>mi8</t>
+  </si>
+  <si>
+    <t>Sí, si tiene
+Tiene carga rápida, comprobado</t>
+  </si>
+  <si>
+    <t>La carga rápdia suele venir en móviles de gama alta o premium. Estos son:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,12 +493,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE6DB74"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -754,20 +836,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -780,8 +850,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -798,6 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1119,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,299 +1209,381 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" customWidth="1"/>
+    <col min="6" max="6" width="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>41</v>
+      <c r="F21" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D13:D15"/>
+  <mergeCells count="9">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>UserSays</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>buy&gt;product.category</t>
-  </si>
-  <si>
-    <t>product.category&gt;sp.range</t>
   </si>
   <si>
     <t>smartphone
@@ -251,11 +248,6 @@
     <t>sp.question.withQuickCharge</t>
   </si>
   <si>
-    <t>cuáles son los móviles con carga rápida
-muestrame móviles con carga rápida
-dime los 3 mejores móviles con carga rápida</t>
-  </si>
-  <si>
     <t>3
 5</t>
   </si>
@@ -300,9 +292,6 @@
     <t>Listo! Estos son los móviles con batería de larga duración
 Aquí los tienes
 Estos son los que tienen batería de más capacidad</t>
-  </si>
-  <si>
-    <t>sp.firstQuestion</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -314,14 +303,6 @@
   </si>
   <si>
     <t>sp.selected.searchQuickCharge.yes</t>
-  </si>
-  <si>
-    <t>Puedes preguntarme lo que quieras, o te puedo guiar para elegir uno 🤔
-¿Quieres preguntarme algo? ¿O quieres que te ayude a elegir características?</t>
-  </si>
-  <si>
-    <t>Vamos a empezar por las dimensiones del SmartPhone, que dependen principalmente del tamaño de pantalla.
-        Las dimensiones del SmartPhone determinan su tamaño. ¿Qué tamaño de pantalla estás buscando?</t>
   </si>
   <si>
     <t>quiero comprar un smartphone
@@ -353,6 +334,35 @@
   </si>
   <si>
     <t>La carga rápdia suele venir en móviles de gama alta o premium. Estos son:</t>
+  </si>
+  <si>
+    <t>product.category&gt;askOrHelp</t>
+  </si>
+  <si>
+    <t>help&gt;sp.range</t>
+  </si>
+  <si>
+    <t>questionWithQuickCharge</t>
+  </si>
+  <si>
+    <t>Perfecto,  puedes preguntarme lo que quieras sobre móviles, o te puedo guiar para elegir uno.
+Genial! ¿Quieres preguntarme algo? ¿O prefieres que te ayude a elegir características?</t>
+  </si>
+  <si>
+    <t>Sigamos con las dimensiones del SmartPhone, que dependen principalmente del tamaño de pantalla.
+        Las dimensiones del SmartPhone determinan su tamaño. ¿Qué tamaño de pantalla estás buscando?</t>
+  </si>
+  <si>
+    <t>cuáles son los móviles con carga rápida
+muestrame móviles con carga rápida
+dime los 3 mejores móviles con carga rápida
+quiero un smartphone con carga rápida</t>
+  </si>
+  <si>
+    <t>Aquí lo tienes:
+Este es:
+El móvil que buscas:
+Listo!</t>
   </si>
 </sst>
 </file>
@@ -836,19 +846,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -859,22 +860,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1188,7 +1182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1196,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,377 +1207,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
-        <v>56</v>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>65</v>
-      </c>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>UserSays</t>
   </si>
@@ -333,9 +333,6 @@
 Tiene carga rápida, comprobado</t>
   </si>
   <si>
-    <t>La carga rápdia suele venir en móviles de gama alta o premium. Estos son:</t>
-  </si>
-  <si>
     <t>product.category&gt;askOrHelp</t>
   </si>
   <si>
@@ -343,10 +340,6 @@
   </si>
   <si>
     <t>questionWithQuickCharge</t>
-  </si>
-  <si>
-    <t>Perfecto,  puedes preguntarme lo que quieras sobre móviles, o te puedo guiar para elegir uno.
-Genial! ¿Quieres preguntarme algo? ¿O prefieres que te ayude a elegir características?</t>
   </si>
   <si>
     <t>Sigamos con las dimensiones del SmartPhone, que dependen principalmente del tamaño de pantalla.
@@ -363,6 +356,34 @@
 Este es:
 El móvil que buscas:
 Listo!</t>
+  </si>
+  <si>
+    <t>Puedes comprarlo aquí
+Estas son las tiendas donde puedes comprarlo
+Aquí tienes las tiendas online donde lo ofrecen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedes preguntarme lo que quieras sobre móviles, o te puedo guiar para elegir uno.
+ ¿Quieres preguntarme algo? ¿O prefieres que te ayude a elegir características?
+</t>
+  </si>
+  <si>
+    <t>La carga rápdia por ahora solo suele venir en móviles de gama alta o premium. Aquí los tienes.</t>
+  </si>
+  <si>
+    <t>sp.selected.ecommerce.selected</t>
+  </si>
+  <si>
+    <t>Amazon
+MediaMarkt
+AliExpress
+GearBest</t>
+  </si>
+  <si>
+    <t>eCommerceName</t>
+  </si>
+  <si>
+    <t>Aquí tienes los detalles del sitio de compra elegido</t>
   </si>
 </sst>
 </file>
@@ -846,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,13 +881,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,9 +943,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1192,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1263,7 @@
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>60</v>
@@ -1269,7 +1290,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1300,7 +1321,7 @@
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1311,12 +1332,12 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1357,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1519,7 +1542,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -1529,7 +1552,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,13 +1595,15 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
@@ -1591,16 +1616,26 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1620,16 +1655,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agent/user_says.xlsx
+++ b/Agent/user_says.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>UserSays</t>
   </si>
@@ -352,12 +352,6 @@
 quiero un smartphone con carga rápida</t>
   </si>
   <si>
-    <t>Aquí lo tienes:
-Este es:
-El móvil que buscas:
-Listo!</t>
-  </si>
-  <si>
     <t>Puedes comprarlo aquí
 Estas son las tiendas donde puedes comprarlo
 Aquí tienes las tiendas online donde lo ofrecen</t>
@@ -369,9 +363,6 @@
   </si>
   <si>
     <t>La carga rápdia por ahora solo suele venir en móviles de gama alta o premium. Aquí los tienes.</t>
-  </si>
-  <si>
-    <t>sp.selected.ecommerce.selected</t>
   </si>
   <si>
     <t>Amazon
@@ -384,6 +375,28 @@
   </si>
   <si>
     <t>Aquí tienes los detalles del sitio de compra elegido</t>
+  </si>
+  <si>
+    <t>ecommerce.selected.priceTracker</t>
+  </si>
+  <si>
+    <t>ecommerce.selected</t>
+  </si>
+  <si>
+    <t>Historial de precios
+gráfica de precios
+ver los últimos precios
+ver el historial de precios</t>
+  </si>
+  <si>
+    <t>Éste es el historial de precios de los últimos días {icon1}. Puedes ahorrarte un dinerillo {icon2} si no te importa esperar ¿Quieres que te avise cuando baje de precio?
+Aquí tienes las últimas variaciones de precio {icon1}. Si quieres ahorrarte un dinerillo {icon2} puedo avisarte cuando baje de precio</t>
+  </si>
+  <si>
+    <t>Aquí lo tienes:
+Éste es:
+El móvil que buscas:
+Listo!</t>
   </si>
 </sst>
 </file>
@@ -867,7 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,6 +892,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1213,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1334,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1331,13 +1347,13 @@
         <v>45</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="7" t="s">
-        <v>73</v>
+      <c r="F7" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1358,14 +1374,14 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1375,13 +1391,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1552,14 +1568,14 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1568,22 +1584,22 @@
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1598,7 +1614,7 @@
         <v>70</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1616,34 +1632,40 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
